--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-242803.8285203218</v>
+        <v>-245267.8919640268</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>193.1677519328308</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>55.6781319491875</v>
+        <v>140.0596812496526</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>241.9742938096921</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>155.5594962886084</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>306.5993616710331</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>9.858513800115615</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>205.6826957773032</v>
       </c>
     </row>
     <row r="7">
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>72.08802744677254</v>
+        <v>123.0159483512254</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>241.6499314317626</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1184,19 +1184,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>169.4049510723431</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>98.37333025956956</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>0.6370175398353023</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.831980181936</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>103.1686991936211</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>20.88994825141584</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>233.3452377579706</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710086</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>25.7319404949743</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>141.383131826302</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695709</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>94.6422618654359</v>
+        <v>132.6315337216669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,13 +2299,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520965</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>28.7518808581214</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2618,7 +2618,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>44.7513807668926</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2849,7 +2849,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2950,22 +2950,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722626</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,13 +3673,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>180.0179497934419</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,13 +3907,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>250.7811435429985</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1739.425677267011</v>
+        <v>1888.09808975843</v>
       </c>
       <c r="C2" t="n">
-        <v>1370.463160326599</v>
+        <v>1519.135572818019</v>
       </c>
       <c r="D2" t="n">
-        <v>1012.197461719849</v>
+        <v>1160.869874211268</v>
       </c>
       <c r="E2" t="n">
-        <v>817.078520373555</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653544</v>
+        <v>2029.57251526313</v>
       </c>
       <c r="Y2" t="n">
-        <v>2126.025517331133</v>
+        <v>1888.09808975843</v>
       </c>
     </row>
     <row r="3">
@@ -4401,25 +4401,25 @@
         <v>176.0213023927781</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
         <v>2096.912393410638</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2766.033973303473</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C4" t="n">
-        <v>2766.033973303473</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D4" t="n">
-        <v>2766.033973303473</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E4" t="n">
-        <v>2618.12087972108</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>3325.605821609171</v>
+        <v>676.468527222536</v>
       </c>
       <c r="W4" t="n">
-        <v>3325.605821609171</v>
+        <v>676.468527222536</v>
       </c>
       <c r="X4" t="n">
-        <v>3168.475017277243</v>
+        <v>676.468527222536</v>
       </c>
       <c r="Y4" t="n">
-        <v>2947.682438133713</v>
+        <v>676.468527222536</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1496.07259001514</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1137.80689140839</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3315.647726861579</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3315.647726861579</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>3062.117250135415</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2731.054362791845</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2378.28570752173</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>920.8870058181849</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="C7" t="n">
-        <v>751.950822890278</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="D7" t="n">
-        <v>601.8341834779422</v>
+        <v>288.0963273019446</v>
       </c>
       <c r="E7" t="n">
-        <v>453.9210898955491</v>
+        <v>288.0963273019446</v>
       </c>
       <c r="F7" t="n">
-        <v>307.0311423976387</v>
+        <v>288.0963273019446</v>
       </c>
       <c r="G7" t="n">
-        <v>139.3283057723577</v>
+        <v>288.0963273019446</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>666.2025176122977</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>438.2129667142804</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>438.2129667142804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2291.674678112795</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1922.712161172384</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1564.446462565633</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1178.658209967389</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>767.6723051777815</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>352.5998550227779</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4811,7 +4811,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520488</v>
+        <v>3044.19904094198</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176917</v>
+        <v>2713.136153598409</v>
       </c>
       <c r="W8" t="n">
-        <v>2678.274518176917</v>
+        <v>2360.367498328294</v>
       </c>
       <c r="X8" t="n">
-        <v>2678.274518176917</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="Y8" t="n">
-        <v>2678.274518176917</v>
+        <v>1986.901740067214</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.0410834832817</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="C10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F10" t="n">
         <v>234.2149530574645</v>
@@ -4984,28 +4984,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>831.0565485757129</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="V10" t="n">
-        <v>731.6895483135214</v>
+        <v>631.7841389438285</v>
       </c>
       <c r="W10" t="n">
-        <v>731.6895483135214</v>
+        <v>631.1406868833888</v>
       </c>
       <c r="X10" t="n">
-        <v>731.6895483135214</v>
+        <v>403.1511359853714</v>
       </c>
       <c r="Y10" t="n">
-        <v>731.6895483135214</v>
+        <v>403.1511359853714</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,13 +5112,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,10 +5127,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740073</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121661</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121661</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,64 +5264,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851784</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1741.758820148922</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1487.074331943035</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1197.657161906075</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>969.6676110080573</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.6676110080573</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,64 +5501,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235166</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.506784258107</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>2018.514925172274</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5729,70 +5729,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797193</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797193</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637309</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890283</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.11872044489</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684177</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770392</v>
+        <v>983.3556038098219</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491323</v>
+        <v>814.419420881915</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367965</v>
+        <v>664.3027814695793</v>
       </c>
       <c r="E22" t="n">
-        <v>336.3048548544034</v>
+        <v>516.3896878871861</v>
       </c>
       <c r="F22" t="n">
-        <v>189.414907356493</v>
+        <v>369.4997403892758</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797808</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910816</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.91737983267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487574</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510516</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854713</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648826</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.701365648826</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750809</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072789</v>
+        <v>1165.004068640062</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6060,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>119.2902967703773</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969296</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400726</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,7 +6221,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6230,13 +6230,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6266,7 +6266,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908939</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6452,58 +6452,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273902</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6598,25 +6598,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>513.8536007400712</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>365.9405071576781</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>219.0505596597677</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,19 +6774,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6880,25 +6880,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
         <v>753.3092412490405</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7166,34 +7166,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>549.6145409888043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1724.146794103439</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1469.462305897552</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1180.045135860591</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>952.0555849625741</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>731.263005819044</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L46" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7819,13 +7819,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -7837,10 +7837,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>109.9070192391636</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>330.5598067068661</v>
+        <v>246.1782574064009</v>
       </c>
     </row>
     <row r="3">
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>10.16334951413592</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>43.26526345294812</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462217</v>
+        <v>119.4047645948081</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>52.83923663127356</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671011806</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,10 +23947,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>226.4057028288537</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>145.139866510289</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.88187642683295</v>
+        <v>32.89260457060192</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>138.4949402405064</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24376,13 +24376,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,10 +24607,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>101.6825818796766</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>138.4949402405074</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>72.11969353038606</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>35.40333084624567</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028983</v>
+        <v>274720.9666028987</v>
       </c>
       <c r="C2" t="n">
+        <v>307890.6636991061</v>
+      </c>
+      <c r="D2" t="n">
         <v>307890.6636991062</v>
-      </c>
-      <c r="D2" t="n">
-        <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
@@ -26332,28 +26332,28 @@
         <v>302679.9748837522</v>
       </c>
       <c r="I2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="J2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="K2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="L2" t="n">
         <v>302679.9748837522</v>
       </c>
-      <c r="J2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
+        <v>302679.9748837524</v>
+      </c>
+      <c r="N2" t="n">
         <v>302679.9748837523</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837521</v>
-      </c>
-      <c r="M2" t="n">
-        <v>302679.9748837523</v>
-      </c>
-      <c r="N2" t="n">
-        <v>302679.9748837522</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972768</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551206</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363174</v>
+        <v>19427.71799363178</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43110.95474649264</v>
+        <v>43110.95474649304</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>15436.64000687967</v>
@@ -26433,31 +26433,31 @@
         <v>15436.64000687967</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687968</v>
+        <v>15436.64000687969</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687972</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="M4" t="n">
-        <v>15436.64000687963</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="N4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="O4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>23427.49926997312</v>
+        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26482,13 +26482,13 @@
         <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1205068.67443258</v>
+        <v>-1205289.805746555</v>
       </c>
       <c r="C6" t="n">
-        <v>106359.9790336604</v>
+        <v>106359.9790336603</v>
       </c>
       <c r="D6" t="n">
-        <v>106359.9790336603</v>
+        <v>106359.9790336602</v>
       </c>
       <c r="E6" t="n">
-        <v>-139291.65675439</v>
+        <v>-139326.3946798252</v>
       </c>
       <c r="F6" t="n">
-        <v>186120.8050529655</v>
+        <v>186086.0671275296</v>
       </c>
       <c r="G6" t="n">
-        <v>186120.8050529652</v>
+        <v>186086.0671275297</v>
       </c>
       <c r="H6" t="n">
-        <v>186120.8050529653</v>
+        <v>186086.0671275296</v>
       </c>
       <c r="I6" t="n">
-        <v>186120.8050529654</v>
+        <v>186086.0671275298</v>
       </c>
       <c r="J6" t="n">
-        <v>-31410.39734431135</v>
+        <v>-31445.13526974761</v>
       </c>
       <c r="K6" t="n">
-        <v>186120.8050529655</v>
+        <v>186086.0671275298</v>
       </c>
       <c r="L6" t="n">
-        <v>186120.8050529653</v>
+        <v>186086.0671275297</v>
       </c>
       <c r="M6" t="n">
-        <v>101065.7771174535</v>
+        <v>101031.0391920181</v>
       </c>
       <c r="N6" t="n">
-        <v>186120.8050529655</v>
+        <v>186086.0671275298</v>
       </c>
       <c r="O6" t="n">
-        <v>186120.8050529656</v>
+        <v>186086.0671275298</v>
       </c>
       <c r="P6" t="n">
-        <v>161871.3305815856</v>
+        <v>161871.3305815858</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26793,22 +26793,22 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="3">
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26990,7 +26990,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>188.762618139431</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>301.0147064142898</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,10 +27552,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27594,16 +27594,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>70.15015910042871</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>75.33100840122864</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>99.32924798806022</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
     </row>
     <row r="7">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>72.66698746754824</v>
+        <v>21.73906656309534</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27831,13 +27831,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>52.95783295555785</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>81.59022088655888</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28020,7 +28020,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28065,16 +28065,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>153.7643130642584</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>285.8859807967557</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2.168102734382652e-12</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>-1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28767,7 +28767,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3.582082778545252e-12</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-1.833200258261058e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>6.080114189899178e-12</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29338,7 +29338,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -29569,7 +29569,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203968</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704897</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.285322933819</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,7 +33260,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,7 +33509,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561594</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561594</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191376</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,31 +36431,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394479</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,7 +37157,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38172,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
